--- a/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,249 +452,593 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>285</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>165</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>265</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>170</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45488</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45495</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45523</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45530</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45537</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45544</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45551</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45586</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45593</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45607</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B32" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B75" t="n">
         <v>10</v>
       </c>
     </row>
@@ -709,7 +1053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,81 +1075,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1215</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>525</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>440</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>10</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1070,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1247,6 +1248,1195 @@
       </c>
       <c r="B23" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-37.15906299465209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>189.59216873859</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-40.20891278447392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>184.1286742061823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-39.60442762956134</v>
+      </c>
+      <c r="D4" t="n">
+        <v>194.4967218824556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-35.17360466017416</v>
+      </c>
+      <c r="D5" t="n">
+        <v>187.3366157872235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-37.78144490955377</v>
+      </c>
+      <c r="D6" t="n">
+        <v>196.482177846407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>76</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-27.83208154300777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>182.2944508119008</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>76</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-43.03515247082616</v>
+      </c>
+      <c r="D8" t="n">
+        <v>193.6212459503906</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>76</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-43.58375433746596</v>
+      </c>
+      <c r="D9" t="n">
+        <v>188.0021321332204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-43.95564888273719</v>
+      </c>
+      <c r="D10" t="n">
+        <v>188.1223192860888</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.12745331639386</v>
+      </c>
+      <c r="D11" t="n">
+        <v>188.3123875005852</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>76</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-34.33682354674438</v>
+      </c>
+      <c r="D12" t="n">
+        <v>192.3532600411637</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>76</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-36.35869881970251</v>
+      </c>
+      <c r="D13" t="n">
+        <v>183.7722036760842</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>77</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-39.72042010502889</v>
+      </c>
+      <c r="D14" t="n">
+        <v>198.6625174764845</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-35.91786697927918</v>
+      </c>
+      <c r="D15" t="n">
+        <v>190.2897080093356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-32.29520371916414</v>
+      </c>
+      <c r="D16" t="n">
+        <v>197.3456319851228</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>77</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-36.19159352395357</v>
+      </c>
+      <c r="D17" t="n">
+        <v>194.2578682705242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-29.12962287704124</v>
+      </c>
+      <c r="D18" t="n">
+        <v>189.6614344057303</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-32.52790480156173</v>
+      </c>
+      <c r="D19" t="n">
+        <v>189.7701126514765</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-39.14372220340869</v>
+      </c>
+      <c r="D20" t="n">
+        <v>186.8402345350079</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>78</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-40.11962122013392</v>
+      </c>
+      <c r="D21" t="n">
+        <v>189.0347167832686</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>78</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-39.39778035418804</v>
+      </c>
+      <c r="D22" t="n">
+        <v>184.9679454295316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>78</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-40.655029248471</v>
+      </c>
+      <c r="D23" t="n">
+        <v>187.0739663998472</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>78</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-30.5849608986286</v>
+      </c>
+      <c r="D24" t="n">
+        <v>186.3488818936045</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>78</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-36.43015174784971</v>
+      </c>
+      <c r="D25" t="n">
+        <v>199.4105099613044</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-41.07317265808352</v>
+      </c>
+      <c r="D26" t="n">
+        <v>199.9416737176444</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>78</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-41.00243919500274</v>
+      </c>
+      <c r="D27" t="n">
+        <v>193.0219715910637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-34.33091102088202</v>
+      </c>
+      <c r="D28" t="n">
+        <v>192.3704214506515</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>78</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-21.61198691120789</v>
+      </c>
+      <c r="D29" t="n">
+        <v>193.4344953653406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>79</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-37.93952803803821</v>
+      </c>
+      <c r="D30" t="n">
+        <v>183.3656955771145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-38.82280200349515</v>
+      </c>
+      <c r="D31" t="n">
+        <v>195.4972082799594</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-39.51405560408833</v>
+      </c>
+      <c r="D32" t="n">
+        <v>195.4225234399433</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-29.28995023770346</v>
+      </c>
+      <c r="D33" t="n">
+        <v>187.8982064563286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>79</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-35.27795732699293</v>
+      </c>
+      <c r="D34" t="n">
+        <v>194.6245831187207</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-27.75496846260449</v>
+      </c>
+      <c r="D35" t="n">
+        <v>182.0919569479525</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>79</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-43.33270954017764</v>
+      </c>
+      <c r="D36" t="n">
+        <v>184.5513970934623</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>79</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-26.70374714977017</v>
+      </c>
+      <c r="D37" t="n">
+        <v>185.1661601292481</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>79</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-33.34891316590097</v>
+      </c>
+      <c r="D38" t="n">
+        <v>196.0669107331753</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-25.66628058133994</v>
+      </c>
+      <c r="D39" t="n">
+        <v>188.1505527002854</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-36.47697792573</v>
+      </c>
+      <c r="D40" t="n">
+        <v>193.0425286781153</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>80</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-32.47220340339918</v>
+      </c>
+      <c r="D41" t="n">
+        <v>193.3075664407905</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>80</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-37.3624414667025</v>
+      </c>
+      <c r="D42" t="n">
+        <v>195.2332850915811</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>80</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-29.53004822438182</v>
+      </c>
+      <c r="D43" t="n">
+        <v>196.2167181291339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>80</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-22.38765558317026</v>
+      </c>
+      <c r="D44" t="n">
+        <v>200.5132006177361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>81</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-30.18608140861252</v>
+      </c>
+      <c r="D45" t="n">
+        <v>185.6857557741064</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>81</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-29.85605578665161</v>
+      </c>
+      <c r="D46" t="n">
+        <v>198.0922579228793</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>81</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-32.68549839110852</v>
+      </c>
+      <c r="D47" t="n">
+        <v>192.2270255953368</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>81</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-26.91478569613734</v>
+      </c>
+      <c r="D48" t="n">
+        <v>197.0849978652881</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>81</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-32.48488467992205</v>
+      </c>
+      <c r="D49" t="n">
+        <v>198.2397837892332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>81</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-29.50305515867789</v>
+      </c>
+      <c r="D50" t="n">
+        <v>197.6664251496616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>81</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-34.40282325433546</v>
+      </c>
+      <c r="D51" t="n">
+        <v>201.6278745912924</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>81</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-23.56401821281846</v>
+      </c>
+      <c r="D52" t="n">
+        <v>194.6274374516667</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>81</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-33.57732486334828</v>
+      </c>
+      <c r="D53" t="n">
+        <v>198.6098484291531</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>82</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-28.10693330259602</v>
+      </c>
+      <c r="D54" t="n">
+        <v>200.0272887286415</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>82</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-25.86453997161984</v>
+      </c>
+      <c r="D55" t="n">
+        <v>198.2846531775762</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>82</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-29.20677984538684</v>
+      </c>
+      <c r="D56" t="n">
+        <v>208.9495224181285</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>82</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-39.47250113765695</v>
+      </c>
+      <c r="D57" t="n">
+        <v>201.5844474267664</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>82</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-30.62868859278155</v>
+      </c>
+      <c r="D58" t="n">
+        <v>196.2332217229595</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>82</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-33.0955866084788</v>
+      </c>
+      <c r="D59" t="n">
+        <v>191.4410185246331</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>82</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-22.16302629529122</v>
+      </c>
+      <c r="D60" t="n">
+        <v>197.1865744293893</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>82</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-27.88258861969993</v>
+      </c>
+      <c r="D61" t="n">
+        <v>197.4127632207089</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>83</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-28.78549185283353</v>
+      </c>
+      <c r="D62" t="n">
+        <v>192.4976896151888</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>84</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-24.2553038920175</v>
+      </c>
+      <c r="D63" t="n">
+        <v>193.3900967802895</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>84</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-31.97082868342194</v>
+      </c>
+      <c r="D64" t="n">
+        <v>196.796684707995</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>84</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-31.70815046647904</v>
+      </c>
+      <c r="D65" t="n">
+        <v>194.247927407999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>84</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-32.47792347031545</v>
+      </c>
+      <c r="D66" t="n">
+        <v>203.6695536139865</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>84</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-21.07266674374726</v>
+      </c>
+      <c r="D67" t="n">
+        <v>203.2517097607161</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>84</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-30.33951338372975</v>
+      </c>
+      <c r="D68" t="n">
+        <v>196.1366277903282</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>85</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-28.86872441443037</v>
+      </c>
+      <c r="D69" t="n">
+        <v>198.0209994667541</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>85</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-31.40941463233712</v>
+      </c>
+      <c r="D70" t="n">
+        <v>199.737033539323</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>85</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-29.94504807473989</v>
+      </c>
+      <c r="D71" t="n">
+        <v>190.051078888518</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>85</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-30.79035913376808</v>
+      </c>
+      <c r="D72" t="n">
+        <v>199.5023061291029</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>85</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-29.1993030666475</v>
+      </c>
+      <c r="D73" t="n">
+        <v>190.7828921081615</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>85</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-24.27112490492829</v>
+      </c>
+      <c r="D74" t="n">
+        <v>194.5489516358918</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>86</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-24.90277966297209</v>
+      </c>
+      <c r="D75" t="n">
+        <v>200.9734688664034</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>86</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-22.55762260775614</v>
+      </c>
+      <c r="D76" t="n">
+        <v>201.2615384874247</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>86</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-25.86642680672004</v>
+      </c>
+      <c r="D77" t="n">
+        <v>195.1952149339868</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>86</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-20.80081276501289</v>
+      </c>
+      <c r="D78" t="n">
+        <v>193.233626987226</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>86</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-19.00584546884331</v>
+      </c>
+      <c r="D79" t="n">
+        <v>201.1400373183608</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>86</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-17.47097128148377</v>
+      </c>
+      <c r="D80" t="n">
+        <v>202.5492666437016</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>86</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-24.97551244851524</v>
+      </c>
+      <c r="D81" t="n">
+        <v>195.920458704838</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>86</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-29.21966965735516</v>
+      </c>
+      <c r="D82" t="n">
+        <v>204.4870207567477</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>87</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-26.2153279952077</v>
+      </c>
+      <c r="D83" t="n">
+        <v>201.265739935869</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKF3CFC_po_data.xlsx
@@ -1261,7 +1261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,16 +1280,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1298,12 +1288,6 @@
       <c r="B2" t="n">
         <v>75</v>
       </c>
-      <c r="C2" t="n">
-        <v>-37.15906299465209</v>
-      </c>
-      <c r="D2" t="n">
-        <v>189.59216873859</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1312,12 +1296,6 @@
       <c r="B3" t="n">
         <v>75</v>
       </c>
-      <c r="C3" t="n">
-        <v>-40.20891278447392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>184.1286742061823</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1326,12 +1304,6 @@
       <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
-        <v>-39.60442762956134</v>
-      </c>
-      <c r="D4" t="n">
-        <v>194.4967218824556</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1340,12 +1312,6 @@
       <c r="B5" t="n">
         <v>75</v>
       </c>
-      <c r="C5" t="n">
-        <v>-35.17360466017416</v>
-      </c>
-      <c r="D5" t="n">
-        <v>187.3366157872235</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1354,12 +1320,6 @@
       <c r="B6" t="n">
         <v>75</v>
       </c>
-      <c r="C6" t="n">
-        <v>-37.78144490955377</v>
-      </c>
-      <c r="D6" t="n">
-        <v>196.482177846407</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1368,12 +1328,6 @@
       <c r="B7" t="n">
         <v>76</v>
       </c>
-      <c r="C7" t="n">
-        <v>-27.83208154300777</v>
-      </c>
-      <c r="D7" t="n">
-        <v>182.2944508119008</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1382,12 +1336,6 @@
       <c r="B8" t="n">
         <v>76</v>
       </c>
-      <c r="C8" t="n">
-        <v>-43.03515247082616</v>
-      </c>
-      <c r="D8" t="n">
-        <v>193.6212459503906</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1396,12 +1344,6 @@
       <c r="B9" t="n">
         <v>76</v>
       </c>
-      <c r="C9" t="n">
-        <v>-43.58375433746596</v>
-      </c>
-      <c r="D9" t="n">
-        <v>188.0021321332204</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1410,12 +1352,6 @@
       <c r="B10" t="n">
         <v>76</v>
       </c>
-      <c r="C10" t="n">
-        <v>-43.95564888273719</v>
-      </c>
-      <c r="D10" t="n">
-        <v>188.1223192860888</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1424,12 +1360,6 @@
       <c r="B11" t="n">
         <v>76</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.12745331639386</v>
-      </c>
-      <c r="D11" t="n">
-        <v>188.3123875005852</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1438,12 +1368,6 @@
       <c r="B12" t="n">
         <v>76</v>
       </c>
-      <c r="C12" t="n">
-        <v>-34.33682354674438</v>
-      </c>
-      <c r="D12" t="n">
-        <v>192.3532600411637</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1452,12 +1376,6 @@
       <c r="B13" t="n">
         <v>76</v>
       </c>
-      <c r="C13" t="n">
-        <v>-36.35869881970251</v>
-      </c>
-      <c r="D13" t="n">
-        <v>183.7722036760842</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1466,12 +1384,6 @@
       <c r="B14" t="n">
         <v>77</v>
       </c>
-      <c r="C14" t="n">
-        <v>-39.72042010502889</v>
-      </c>
-      <c r="D14" t="n">
-        <v>198.6625174764845</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1480,12 +1392,6 @@
       <c r="B15" t="n">
         <v>77</v>
       </c>
-      <c r="C15" t="n">
-        <v>-35.91786697927918</v>
-      </c>
-      <c r="D15" t="n">
-        <v>190.2897080093356</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1494,12 +1400,6 @@
       <c r="B16" t="n">
         <v>77</v>
       </c>
-      <c r="C16" t="n">
-        <v>-32.29520371916414</v>
-      </c>
-      <c r="D16" t="n">
-        <v>197.3456319851228</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1508,12 +1408,6 @@
       <c r="B17" t="n">
         <v>77</v>
       </c>
-      <c r="C17" t="n">
-        <v>-36.19159352395357</v>
-      </c>
-      <c r="D17" t="n">
-        <v>194.2578682705242</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1522,12 +1416,6 @@
       <c r="B18" t="n">
         <v>77</v>
       </c>
-      <c r="C18" t="n">
-        <v>-29.12962287704124</v>
-      </c>
-      <c r="D18" t="n">
-        <v>189.6614344057303</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1536,12 +1424,6 @@
       <c r="B19" t="n">
         <v>77</v>
       </c>
-      <c r="C19" t="n">
-        <v>-32.52790480156173</v>
-      </c>
-      <c r="D19" t="n">
-        <v>189.7701126514765</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1550,12 +1432,6 @@
       <c r="B20" t="n">
         <v>77</v>
       </c>
-      <c r="C20" t="n">
-        <v>-39.14372220340869</v>
-      </c>
-      <c r="D20" t="n">
-        <v>186.8402345350079</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1564,12 +1440,6 @@
       <c r="B21" t="n">
         <v>78</v>
       </c>
-      <c r="C21" t="n">
-        <v>-40.11962122013392</v>
-      </c>
-      <c r="D21" t="n">
-        <v>189.0347167832686</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1578,12 +1448,6 @@
       <c r="B22" t="n">
         <v>78</v>
       </c>
-      <c r="C22" t="n">
-        <v>-39.39778035418804</v>
-      </c>
-      <c r="D22" t="n">
-        <v>184.9679454295316</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1592,12 +1456,6 @@
       <c r="B23" t="n">
         <v>78</v>
       </c>
-      <c r="C23" t="n">
-        <v>-40.655029248471</v>
-      </c>
-      <c r="D23" t="n">
-        <v>187.0739663998472</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1606,12 +1464,6 @@
       <c r="B24" t="n">
         <v>78</v>
       </c>
-      <c r="C24" t="n">
-        <v>-30.5849608986286</v>
-      </c>
-      <c r="D24" t="n">
-        <v>186.3488818936045</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1620,12 +1472,6 @@
       <c r="B25" t="n">
         <v>78</v>
       </c>
-      <c r="C25" t="n">
-        <v>-36.43015174784971</v>
-      </c>
-      <c r="D25" t="n">
-        <v>199.4105099613044</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1634,12 +1480,6 @@
       <c r="B26" t="n">
         <v>78</v>
       </c>
-      <c r="C26" t="n">
-        <v>-41.07317265808352</v>
-      </c>
-      <c r="D26" t="n">
-        <v>199.9416737176444</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1648,12 +1488,6 @@
       <c r="B27" t="n">
         <v>78</v>
       </c>
-      <c r="C27" t="n">
-        <v>-41.00243919500274</v>
-      </c>
-      <c r="D27" t="n">
-        <v>193.0219715910637</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1662,12 +1496,6 @@
       <c r="B28" t="n">
         <v>78</v>
       </c>
-      <c r="C28" t="n">
-        <v>-34.33091102088202</v>
-      </c>
-      <c r="D28" t="n">
-        <v>192.3704214506515</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1676,12 +1504,6 @@
       <c r="B29" t="n">
         <v>78</v>
       </c>
-      <c r="C29" t="n">
-        <v>-21.61198691120789</v>
-      </c>
-      <c r="D29" t="n">
-        <v>193.4344953653406</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1690,12 +1512,6 @@
       <c r="B30" t="n">
         <v>79</v>
       </c>
-      <c r="C30" t="n">
-        <v>-37.93952803803821</v>
-      </c>
-      <c r="D30" t="n">
-        <v>183.3656955771145</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1704,12 +1520,6 @@
       <c r="B31" t="n">
         <v>79</v>
       </c>
-      <c r="C31" t="n">
-        <v>-38.82280200349515</v>
-      </c>
-      <c r="D31" t="n">
-        <v>195.4972082799594</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1718,12 +1528,6 @@
       <c r="B32" t="n">
         <v>79</v>
       </c>
-      <c r="C32" t="n">
-        <v>-39.51405560408833</v>
-      </c>
-      <c r="D32" t="n">
-        <v>195.4225234399433</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1732,12 +1536,6 @@
       <c r="B33" t="n">
         <v>79</v>
       </c>
-      <c r="C33" t="n">
-        <v>-29.28995023770346</v>
-      </c>
-      <c r="D33" t="n">
-        <v>187.8982064563286</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1746,12 +1544,6 @@
       <c r="B34" t="n">
         <v>79</v>
       </c>
-      <c r="C34" t="n">
-        <v>-35.27795732699293</v>
-      </c>
-      <c r="D34" t="n">
-        <v>194.6245831187207</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1760,12 +1552,6 @@
       <c r="B35" t="n">
         <v>79</v>
       </c>
-      <c r="C35" t="n">
-        <v>-27.75496846260449</v>
-      </c>
-      <c r="D35" t="n">
-        <v>182.0919569479525</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1774,12 +1560,6 @@
       <c r="B36" t="n">
         <v>79</v>
       </c>
-      <c r="C36" t="n">
-        <v>-43.33270954017764</v>
-      </c>
-      <c r="D36" t="n">
-        <v>184.5513970934623</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1788,12 +1568,6 @@
       <c r="B37" t="n">
         <v>79</v>
       </c>
-      <c r="C37" t="n">
-        <v>-26.70374714977017</v>
-      </c>
-      <c r="D37" t="n">
-        <v>185.1661601292481</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1802,12 +1576,6 @@
       <c r="B38" t="n">
         <v>79</v>
       </c>
-      <c r="C38" t="n">
-        <v>-33.34891316590097</v>
-      </c>
-      <c r="D38" t="n">
-        <v>196.0669107331753</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1816,12 +1584,6 @@
       <c r="B39" t="n">
         <v>80</v>
       </c>
-      <c r="C39" t="n">
-        <v>-25.66628058133994</v>
-      </c>
-      <c r="D39" t="n">
-        <v>188.1505527002854</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1830,12 +1592,6 @@
       <c r="B40" t="n">
         <v>80</v>
       </c>
-      <c r="C40" t="n">
-        <v>-36.47697792573</v>
-      </c>
-      <c r="D40" t="n">
-        <v>193.0425286781153</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1844,12 +1600,6 @@
       <c r="B41" t="n">
         <v>80</v>
       </c>
-      <c r="C41" t="n">
-        <v>-32.47220340339918</v>
-      </c>
-      <c r="D41" t="n">
-        <v>193.3075664407905</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1858,12 +1608,6 @@
       <c r="B42" t="n">
         <v>80</v>
       </c>
-      <c r="C42" t="n">
-        <v>-37.3624414667025</v>
-      </c>
-      <c r="D42" t="n">
-        <v>195.2332850915811</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1872,12 +1616,6 @@
       <c r="B43" t="n">
         <v>80</v>
       </c>
-      <c r="C43" t="n">
-        <v>-29.53004822438182</v>
-      </c>
-      <c r="D43" t="n">
-        <v>196.2167181291339</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1886,12 +1624,6 @@
       <c r="B44" t="n">
         <v>80</v>
       </c>
-      <c r="C44" t="n">
-        <v>-22.38765558317026</v>
-      </c>
-      <c r="D44" t="n">
-        <v>200.5132006177361</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1900,12 +1632,6 @@
       <c r="B45" t="n">
         <v>81</v>
       </c>
-      <c r="C45" t="n">
-        <v>-30.18608140861252</v>
-      </c>
-      <c r="D45" t="n">
-        <v>185.6857557741064</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1914,12 +1640,6 @@
       <c r="B46" t="n">
         <v>81</v>
       </c>
-      <c r="C46" t="n">
-        <v>-29.85605578665161</v>
-      </c>
-      <c r="D46" t="n">
-        <v>198.0922579228793</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1928,12 +1648,6 @@
       <c r="B47" t="n">
         <v>81</v>
       </c>
-      <c r="C47" t="n">
-        <v>-32.68549839110852</v>
-      </c>
-      <c r="D47" t="n">
-        <v>192.2270255953368</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1942,12 +1656,6 @@
       <c r="B48" t="n">
         <v>81</v>
       </c>
-      <c r="C48" t="n">
-        <v>-26.91478569613734</v>
-      </c>
-      <c r="D48" t="n">
-        <v>197.0849978652881</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1956,12 +1664,6 @@
       <c r="B49" t="n">
         <v>81</v>
       </c>
-      <c r="C49" t="n">
-        <v>-32.48488467992205</v>
-      </c>
-      <c r="D49" t="n">
-        <v>198.2397837892332</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1970,12 +1672,6 @@
       <c r="B50" t="n">
         <v>81</v>
       </c>
-      <c r="C50" t="n">
-        <v>-29.50305515867789</v>
-      </c>
-      <c r="D50" t="n">
-        <v>197.6664251496616</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1984,12 +1680,6 @@
       <c r="B51" t="n">
         <v>81</v>
       </c>
-      <c r="C51" t="n">
-        <v>-34.40282325433546</v>
-      </c>
-      <c r="D51" t="n">
-        <v>201.6278745912924</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1998,12 +1688,6 @@
       <c r="B52" t="n">
         <v>81</v>
       </c>
-      <c r="C52" t="n">
-        <v>-23.56401821281846</v>
-      </c>
-      <c r="D52" t="n">
-        <v>194.6274374516667</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2012,12 +1696,6 @@
       <c r="B53" t="n">
         <v>81</v>
       </c>
-      <c r="C53" t="n">
-        <v>-33.57732486334828</v>
-      </c>
-      <c r="D53" t="n">
-        <v>198.6098484291531</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2026,12 +1704,6 @@
       <c r="B54" t="n">
         <v>82</v>
       </c>
-      <c r="C54" t="n">
-        <v>-28.10693330259602</v>
-      </c>
-      <c r="D54" t="n">
-        <v>200.0272887286415</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2040,12 +1712,6 @@
       <c r="B55" t="n">
         <v>82</v>
       </c>
-      <c r="C55" t="n">
-        <v>-25.86453997161984</v>
-      </c>
-      <c r="D55" t="n">
-        <v>198.2846531775762</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2054,12 +1720,6 @@
       <c r="B56" t="n">
         <v>82</v>
       </c>
-      <c r="C56" t="n">
-        <v>-29.20677984538684</v>
-      </c>
-      <c r="D56" t="n">
-        <v>208.9495224181285</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2068,12 +1728,6 @@
       <c r="B57" t="n">
         <v>82</v>
       </c>
-      <c r="C57" t="n">
-        <v>-39.47250113765695</v>
-      </c>
-      <c r="D57" t="n">
-        <v>201.5844474267664</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2082,12 +1736,6 @@
       <c r="B58" t="n">
         <v>82</v>
       </c>
-      <c r="C58" t="n">
-        <v>-30.62868859278155</v>
-      </c>
-      <c r="D58" t="n">
-        <v>196.2332217229595</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2096,12 +1744,6 @@
       <c r="B59" t="n">
         <v>82</v>
       </c>
-      <c r="C59" t="n">
-        <v>-33.0955866084788</v>
-      </c>
-      <c r="D59" t="n">
-        <v>191.4410185246331</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2110,12 +1752,6 @@
       <c r="B60" t="n">
         <v>82</v>
       </c>
-      <c r="C60" t="n">
-        <v>-22.16302629529122</v>
-      </c>
-      <c r="D60" t="n">
-        <v>197.1865744293893</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2124,12 +1760,6 @@
       <c r="B61" t="n">
         <v>82</v>
       </c>
-      <c r="C61" t="n">
-        <v>-27.88258861969993</v>
-      </c>
-      <c r="D61" t="n">
-        <v>197.4127632207089</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2138,12 +1768,6 @@
       <c r="B62" t="n">
         <v>83</v>
       </c>
-      <c r="C62" t="n">
-        <v>-28.78549185283353</v>
-      </c>
-      <c r="D62" t="n">
-        <v>192.4976896151888</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2152,12 +1776,6 @@
       <c r="B63" t="n">
         <v>84</v>
       </c>
-      <c r="C63" t="n">
-        <v>-24.2553038920175</v>
-      </c>
-      <c r="D63" t="n">
-        <v>193.3900967802895</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2166,12 +1784,6 @@
       <c r="B64" t="n">
         <v>84</v>
       </c>
-      <c r="C64" t="n">
-        <v>-31.97082868342194</v>
-      </c>
-      <c r="D64" t="n">
-        <v>196.796684707995</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2180,12 +1792,6 @@
       <c r="B65" t="n">
         <v>84</v>
       </c>
-      <c r="C65" t="n">
-        <v>-31.70815046647904</v>
-      </c>
-      <c r="D65" t="n">
-        <v>194.247927407999</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2194,12 +1800,6 @@
       <c r="B66" t="n">
         <v>84</v>
       </c>
-      <c r="C66" t="n">
-        <v>-32.47792347031545</v>
-      </c>
-      <c r="D66" t="n">
-        <v>203.6695536139865</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2208,12 +1808,6 @@
       <c r="B67" t="n">
         <v>84</v>
       </c>
-      <c r="C67" t="n">
-        <v>-21.07266674374726</v>
-      </c>
-      <c r="D67" t="n">
-        <v>203.2517097607161</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2222,12 +1816,6 @@
       <c r="B68" t="n">
         <v>84</v>
       </c>
-      <c r="C68" t="n">
-        <v>-30.33951338372975</v>
-      </c>
-      <c r="D68" t="n">
-        <v>196.1366277903282</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2236,12 +1824,6 @@
       <c r="B69" t="n">
         <v>85</v>
       </c>
-      <c r="C69" t="n">
-        <v>-28.86872441443037</v>
-      </c>
-      <c r="D69" t="n">
-        <v>198.0209994667541</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2250,12 +1832,6 @@
       <c r="B70" t="n">
         <v>85</v>
       </c>
-      <c r="C70" t="n">
-        <v>-31.40941463233712</v>
-      </c>
-      <c r="D70" t="n">
-        <v>199.737033539323</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2264,12 +1840,6 @@
       <c r="B71" t="n">
         <v>85</v>
       </c>
-      <c r="C71" t="n">
-        <v>-29.94504807473989</v>
-      </c>
-      <c r="D71" t="n">
-        <v>190.051078888518</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2278,12 +1848,6 @@
       <c r="B72" t="n">
         <v>85</v>
       </c>
-      <c r="C72" t="n">
-        <v>-30.79035913376808</v>
-      </c>
-      <c r="D72" t="n">
-        <v>199.5023061291029</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2292,12 +1856,6 @@
       <c r="B73" t="n">
         <v>85</v>
       </c>
-      <c r="C73" t="n">
-        <v>-29.1993030666475</v>
-      </c>
-      <c r="D73" t="n">
-        <v>190.7828921081615</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2306,12 +1864,6 @@
       <c r="B74" t="n">
         <v>85</v>
       </c>
-      <c r="C74" t="n">
-        <v>-24.27112490492829</v>
-      </c>
-      <c r="D74" t="n">
-        <v>194.5489516358918</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2320,12 +1872,6 @@
       <c r="B75" t="n">
         <v>86</v>
       </c>
-      <c r="C75" t="n">
-        <v>-24.90277966297209</v>
-      </c>
-      <c r="D75" t="n">
-        <v>200.9734688664034</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2334,12 +1880,6 @@
       <c r="B76" t="n">
         <v>86</v>
       </c>
-      <c r="C76" t="n">
-        <v>-22.55762260775614</v>
-      </c>
-      <c r="D76" t="n">
-        <v>201.2615384874247</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2348,12 +1888,6 @@
       <c r="B77" t="n">
         <v>86</v>
       </c>
-      <c r="C77" t="n">
-        <v>-25.86642680672004</v>
-      </c>
-      <c r="D77" t="n">
-        <v>195.1952149339868</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2362,12 +1896,6 @@
       <c r="B78" t="n">
         <v>86</v>
       </c>
-      <c r="C78" t="n">
-        <v>-20.80081276501289</v>
-      </c>
-      <c r="D78" t="n">
-        <v>193.233626987226</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2376,12 +1904,6 @@
       <c r="B79" t="n">
         <v>86</v>
       </c>
-      <c r="C79" t="n">
-        <v>-19.00584546884331</v>
-      </c>
-      <c r="D79" t="n">
-        <v>201.1400373183608</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2390,12 +1912,6 @@
       <c r="B80" t="n">
         <v>86</v>
       </c>
-      <c r="C80" t="n">
-        <v>-17.47097128148377</v>
-      </c>
-      <c r="D80" t="n">
-        <v>202.5492666437016</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2404,12 +1920,6 @@
       <c r="B81" t="n">
         <v>86</v>
       </c>
-      <c r="C81" t="n">
-        <v>-24.97551244851524</v>
-      </c>
-      <c r="D81" t="n">
-        <v>195.920458704838</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2418,12 +1928,6 @@
       <c r="B82" t="n">
         <v>86</v>
       </c>
-      <c r="C82" t="n">
-        <v>-29.21966965735516</v>
-      </c>
-      <c r="D82" t="n">
-        <v>204.4870207567477</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2431,12 +1935,6 @@
       </c>
       <c r="B83" t="n">
         <v>87</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-26.2153279952077</v>
-      </c>
-      <c r="D83" t="n">
-        <v>201.265739935869</v>
       </c>
     </row>
   </sheetData>
